--- a/Книга.xlsx
+++ b/Книга.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20304"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8C97AC9-CE99-42CF-B36D-4751F053F860}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{430C4E7F-D4A8-4BEB-856D-FCC18A524D55}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,13 +363,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Книга.xlsx
+++ b/Книга.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20304"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{430C4E7F-D4A8-4BEB-856D-FCC18A524D55}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9295C10A-9608-4844-B29A-1F90BC152342}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,15 +363,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Книга.xlsx
+++ b/Книга.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20304"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9295C10A-9608-4844-B29A-1F90BC152342}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CDAAC30-668B-4474-9CBD-CB7269D00387}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Книга.xlsx
+++ b/Книга.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20304"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CDAAC30-668B-4474-9CBD-CB7269D00387}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,7 +48,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -107,7 +106,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -159,7 +158,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -353,23 +352,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
